--- a/results/total_number_of_drivers.xlsx
+++ b/results/total_number_of_drivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL Projects Includes Learning\SQL_Project_F1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15686850-2C83-49C3-B147-602F151EEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9DCCCC-8FC2-4131-9207-4E63BDE1568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{786B7DE6-FCC6-4250-9C49-3E8BB5BE7E50}"/>
   </bookViews>
@@ -2006,7 +2006,7 @@
                   </a:schemeClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t> pilots also lead by number of </a:t>
+              <a:t> pilots also lead in </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
@@ -2071,7 +2071,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4108077" y="2098860"/>
+            <a:off x="4108077" y="2009214"/>
             <a:ext cx="1682750" cy="1434728"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3045,7 +3045,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results/total_number_of_drivers.xlsx
+++ b/results/total_number_of_drivers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SQL Projects Includes Learning\SQL_Project_F1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9DCCCC-8FC2-4131-9207-4E63BDE1568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C993A63B-B192-4A67-9F6E-F8D44BF109F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{786B7DE6-FCC6-4250-9C49-3E8BB5BE7E50}"/>
   </bookViews>
@@ -3045,7 +3045,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
